--- a/biology/Botanique/Petit_Hôpital/Petit_Hôpital.xlsx
+++ b/biology/Botanique/Petit_Hôpital/Petit_Hôpital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Petit_H%C3%B4pital</t>
+          <t>Petit_Hôpital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit Hôpital est un ancien cultivar de pommier domestique, c'est plus une pomme à cuire qu'une pomme à dessert.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Petit_H%C3%B4pital</t>
+          <t>Petit_Hôpital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Bois de moyenne force, rameaux peu nombreux, généralement assez érigés, généralement de longueur et grosseur moyennes, à peine géniculés, duveteux et rouge-brun ardoisé. 
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois de moyenne force, rameaux peu nombreux, généralement assez érigés, généralement de longueur et grosseur moyennes, à peine géniculés, duveteux et rouge-brun ardoisé. 
 Lenticelles grandes et arrondies, blanches et rapprochées. Coussinets aplatis. Yeux incomplètement collés sur le bois, moyens, ovoïdes, très cotonneux. feuilles assez grandes, ovales-arrondies, courtement acuminées, coriaces et fortement dentées.
 Pétiole court, très gros, amplement carminé, rarement bien canelé.
-Stipules : étroites et longues[1].
+Stipules : étroites et longues.
 Fertilité : convenable.
-Fruit
-Le fruit est de grosseur moyenne, de forme globuleuse, plus développée d'un côté que l'autre, au pédoncule arqué,assez fort, court, obliquement planté dans un bassin peu prononcé.
-De deuxième qualité comme fruit à couteau, de première qualité pour les usages culinaires[1].
-La maturité s'obtient de janvier à mai[1].
 </t>
         </is>
       </c>
@@ -533,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Petit_H%C3%B4pital</t>
+          <t>Petit_Hôpital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +561,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Origine</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le cultivar provient de la Seine-Inférieure (ancienne Seine-Maritime) où il est apprécié depuis de très longues années. L'exemplaire d'André Leroy lui est parvenu en 1866, venant du Havre[1].
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est de grosseur moyenne, de forme globuleuse, plus développée d'un côté que l'autre, au pédoncule arqué,assez fort, court, obliquement planté dans un bassin peu prononcé.
+De deuxième qualité comme fruit à couteau, de première qualité pour les usages culinaires.
+La maturité s'obtient de janvier à mai.
 </t>
         </is>
       </c>
@@ -564,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Petit_H%C3%B4pital</t>
+          <t>Petit_Hôpital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +600,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar provient de la Seine-Inférieure (ancienne Seine-Maritime) où il est apprécié depuis de très longues années. L'exemplaire d'André Leroy lui est parvenu en 1866, venant du Havre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Petit_Hôpital</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre fait de très beaux plein-vents et prospère aussi bien sous forme naine, particulièrement lorsqu'il est greffé sur Paradis[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre fait de très beaux plein-vents et prospère aussi bien sous forme naine, particulièrement lorsqu'il est greffé sur Paradis.
 </t>
         </is>
       </c>
